--- a/数据整理/stocks/A股/科创板/688789-宏华数科.xlsx
+++ b/数据整理/stocks/A股/科创板/688789-宏华数科.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -773,7 +774,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -784,17 +785,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -804,13 +825,255 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>003594</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>44.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1124</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>080008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>46.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001834</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>46.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002449</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>民生加银量化中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>24.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003595</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>44.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>7</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>2.15</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688789-宏华数科.xlsx
+++ b/数据整理/stocks/A股/科创板/688789-宏华数科.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1020,7 +1021,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,17 +1032,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1051,14 +1072,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.19</v>
+          <t>003594</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>43.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1067,13 +1110,195 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>080008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>40.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001834</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>40.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003595</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>43.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>7</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>2.15</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688789-宏华数科.xlsx
+++ b/数据整理/stocks/A股/科创板/688789-宏华数科.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1229,7 +1230,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1240,17 +1241,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1260,14 +1281,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.08</v>
+          <t>080008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>49.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1276,14 +1319,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.19</v>
+          <t>003594</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>54.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1292,13 +1357,173 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>001834</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>49.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003595</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>54.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>2.15</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688789-宏华数科.xlsx
+++ b/数据整理/stocks/A股/科创板/688789-宏华数科.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,319 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>506003</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国科创板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>30.08</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.76</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.4408</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>290002</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泰信先行策略混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.04</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3706</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="D4" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006642</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华泰保兴吉年利定期开放混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.34</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.70</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2459</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007586</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华泰保兴多策略三个月定期开放股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.65</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0929</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002813</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>博时颐泰混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>26.07</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0023</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002449</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>民生加银量化中国灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>29.31</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.59</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0020</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002814</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>博时颐泰混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>26.07</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
+      <c r="D5" t="n">
+        <v>2.15</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -776,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -827,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003594</t>
+          <t>080008</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>长盛盛崇灵活配置混合A</t>
+          <t>长盛战略新兴产业灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>44.16</t>
+          <t>49.15</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1124</t>
+          <t>0.0231</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -865,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>080008</t>
+          <t>003594</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>长盛战略新兴产业灵活配置混合A</t>
+          <t>长盛盛崇灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>46.07</t>
+          <t>54.24</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0366</t>
+          <t>0.0230</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -913,26 +691,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>46.07</t>
+          <t>49.15</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0340</t>
+          <t>0.0213</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -941,74 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002449</t>
+          <t>003595</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>民生加银量化中国灵活配置混合</t>
+          <t>长盛盛崇灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>24.47</t>
+          <t>54.24</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.26</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0028</t>
+          <t>0.0008</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>003595</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>长盛盛崇灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>44.16</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1230,7 +970,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1281,36 +1021,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>080008</t>
+          <t>003594</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>长盛战略新兴产业灵活配置混合A</t>
+          <t>长盛盛崇灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>49.15</t>
+          <t>44.16</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0231</t>
+          <t>0.1124</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1319,36 +1059,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003594</t>
+          <t>080008</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>长盛盛崇灵活配置混合A</t>
+          <t>长盛战略新兴产业灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>54.24</t>
+          <t>46.07</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0230</t>
+          <t>0.0366</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1367,26 +1107,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>49.15</t>
+          <t>46.07</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0213</t>
+          <t>0.0340</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1395,36 +1135,74 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>002449</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>民生加银量化中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>24.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>003595</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>长盛盛崇灵活配置混合C</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>54.24</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>44.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1438,96 +1216,318 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4408</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>290002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰信先行策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3706</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006642</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2459</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007586</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰保兴多策略三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0929</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002813</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时颐泰混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002449</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>民生加银量化中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.15</v>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002814</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时颐泰混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688789-宏华数科.xlsx
+++ b/数据整理/stocks/A股/科创板/688789-宏华数科.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.19</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.15</v>
       </c>
     </row>
@@ -554,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -605,36 +622,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>080008</t>
+          <t>012096</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>长盛战略新兴产业灵活配置混合A</t>
+          <t>鑫元鑫动力混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>49.15</t>
+          <t>86.05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0231</t>
+          <t>0.0834</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -643,36 +660,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003594</t>
+          <t>014263</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>长盛盛崇灵活配置混合A</t>
+          <t>鑫元长三角混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>54.24</t>
+          <t>78.27</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0230</t>
+          <t>0.0575</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -681,36 +698,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001834</t>
+          <t>005262</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长盛战略新兴产业灵活配置混合C</t>
+          <t>鑫元欣享灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>49.15</t>
+          <t>77.34</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0213</t>
+          <t>0.0320</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -719,36 +736,186 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003595</t>
+          <t>012097</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>长盛盛崇灵活配置混合C</t>
+          <t>鑫元鑫动力混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>54.24</t>
+          <t>86.05</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0008</t>
+          <t>0.0282</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014264</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鑫元长三角混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012432</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银安泰混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>32.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005263</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012431</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银安泰混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>32.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -813,36 +980,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003594</t>
+          <t>080008</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>长盛盛崇灵活配置混合A</t>
+          <t>长盛战略新兴产业灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>43.63</t>
+          <t>49.15</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0309</t>
+          <t>0.0231</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -851,36 +1018,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>080008</t>
+          <t>003594</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>长盛战略新兴产业灵活配置混合A</t>
+          <t>长盛盛崇灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>40.84</t>
+          <t>54.24</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0280</t>
+          <t>0.0230</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -899,26 +1066,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>40.84</t>
+          <t>49.15</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0219</t>
+          <t>0.0213</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -937,26 +1104,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>43.63</t>
+          <t>54.24</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0018</t>
+          <t>0.0008</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -965,6 +1132,214 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003594</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>43.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>080008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>40.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001834</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>40.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003595</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>43.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1210,7 +1585,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688789-宏华数科.xlsx
+++ b/数据整理/stocks/A股/科创板/688789-宏华数科.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>0.24</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.19</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.15</v>
       </c>
     </row>
@@ -566,6 +583,1048 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010608</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7297</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>460005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5787</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008418</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2385</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>450010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国富策略回报混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2068</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012096</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鑫元鑫动力混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1088</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008419</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014263</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鑫元长三角混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010609</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012995</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实策略视野三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005262</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009395</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鑫元安鑫回报混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005263</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012097</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鑫元鑫动力混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001067</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>21.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012432</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国投瑞银安泰混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>35.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009232</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华安惠混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014264</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鑫元长三角混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010037</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009635</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华安睿两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009634</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华安睿两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001380</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>21.02</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012431</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国投瑞银安泰混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>35.74</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009233</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华安惠混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>016259</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鑫元安鑫回报混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -916,214 +1975,6 @@
       </c>
       <c r="H9" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>080008</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>长盛战略新兴产业灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>49.15</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0231</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>003594</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>长盛盛崇灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>54.24</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0230</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001834</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长盛战略新兴产业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>49.15</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0213</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003595</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>长盛盛崇灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>54.24</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1188,36 +2039,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003594</t>
+          <t>080008</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>长盛盛崇灵活配置混合A</t>
+          <t>长盛战略新兴产业灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>43.63</t>
+          <t>49.15</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0309</t>
+          <t>0.0231</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1226,36 +2077,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>080008</t>
+          <t>003594</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>长盛战略新兴产业灵活配置混合A</t>
+          <t>长盛盛崇灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>40.84</t>
+          <t>54.24</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0280</t>
+          <t>0.0230</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1274,26 +2125,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>40.84</t>
+          <t>49.15</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0219</t>
+          <t>0.0213</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1312,26 +2163,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>43.63</t>
+          <t>54.24</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0018</t>
+          <t>0.0008</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1340,6 +2191,214 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003594</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>43.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>080008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>40.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001834</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>40.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003595</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>43.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1585,7 +2644,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
